--- a/ClassePrimaire.xlsx
+++ b/ClassePrimaire.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Classe 1</t>
   </si>
@@ -58,13 +58,10 @@
     <t>Trimestre3</t>
   </si>
   <si>
-    <t>A32</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>bonjour</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -72,13 +69,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,8 +125,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -464,7 +467,7 @@
     <col min="26" max="26" style="4" width="9.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +497,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -622,10 +625,10 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -651,11 +654,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
